--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>654626.0253181631</v>
+        <v>735375.0547682516</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12426458.88989895</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5739665.974240766</v>
+        <v>6381813.161497339</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9709974.432811251</v>
+        <v>9386352.82029498</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G2" t="n">
-        <v>12.36421235810597</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>232.2791855053265</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838592</v>
+        <v>107.388071918641</v>
       </c>
       <c r="T3" t="n">
-        <v>192.0665623188214</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -801,7 +803,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>175.3455350572532</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.781160222249666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>173.0985698045192</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>23.54408597586831</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>26.17372043046393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>169.2856773621634</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1054,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>105.8612816265676</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
-        <v>26.30660220273212</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>198.9430992003366</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>208.2474868886328</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1303,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>85.45564210299004</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>137.7336954102807</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1372,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>145.221945923934</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>85.17289288835083</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1540,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>111.9187566128678</v>
       </c>
       <c r="Y13" t="n">
-        <v>196.9899243971805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T14" t="n">
-        <v>57.92518451681179</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814037</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.7576914549238</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>114.265617377101</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>48.20942378949641</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>201.6622187863182</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1938,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2059,16 +2061,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>250.4838170070061</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>184.6430836474525</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>89.72280177868467</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2096,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>168.1158122680963</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>108.5674217103421</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>142.3839003177515</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2315,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>131.695816193807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2330,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -2369,13 +2371,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>50.04052206184288</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>13.02719212039609</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>39.34540819183059</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>220.1070326746003</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>28.93382893561908</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>80.50796942908609</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>111.9187566128687</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>169.5015886993131</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>323.9708417730891</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>155.7123319296402</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>15.41483220625815</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>121.0389903687753</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3044,7 +3046,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3092,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>201.6622187863186</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>52.23490948285976</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491558</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>22.7931936102642</v>
+        <v>256.7273523546842</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3323,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3360,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3439,10 +3441,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3481,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>157.7822070347172</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>114.265617377101</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3506,10 +3508,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>99.50249420969844</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3518,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>289.0908630279709</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>173.626889274476</v>
+        <v>173.6268892744764</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3740,19 +3742,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>243.7491467488888</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>160.2962291795008</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -3791,13 +3793,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>74.75769145492382</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,22 +3948,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>53.7634345605265</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3977,25 +3979,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>203.8751166288486</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>188.605944229152</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4034,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>121.953739025532</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -4153,7 +4155,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>77.95206549279902</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>474.7217947496369</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="C2" t="n">
-        <v>474.7217947496369</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="D2" t="n">
-        <v>474.7217947496369</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="E2" t="n">
-        <v>474.7217947496369</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="F2" t="n">
-        <v>63.73588996002934</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.92672505065</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>1251.46096678957</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y2" t="n">
-        <v>861.3216348137587</v>
+        <v>820.2300801016544</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966388</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155118</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>946.3827200882054</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>946.3827200882054</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>718.2468741250188</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>483.0947658932761</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>228.8574091650744</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>228.8574091650744</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C4" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>542.1592551731853</v>
       </c>
       <c r="U4" t="n">
-        <v>825.137147448514</v>
+        <v>275.7815986060074</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426272</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="W4" t="n">
-        <v>281.0354892056666</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="X4" t="n">
-        <v>53.04593830764924</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1211.005488048709</v>
+        <v>634.2472820412709</v>
       </c>
       <c r="C5" t="n">
-        <v>1211.005488048709</v>
+        <v>634.2472820412709</v>
       </c>
       <c r="D5" t="n">
-        <v>852.7397894419585</v>
+        <v>634.2472820412709</v>
       </c>
       <c r="E5" t="n">
-        <v>466.9515368437143</v>
+        <v>634.2472820412709</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>634.2472820412709</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>218.2162367446781</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T5" t="n">
-        <v>2538.557423374026</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="U5" t="n">
-        <v>2284.976362638206</v>
+        <v>1704.678664719077</v>
       </c>
       <c r="V5" t="n">
-        <v>1953.913475294635</v>
+        <v>1373.615777375507</v>
       </c>
       <c r="W5" t="n">
-        <v>1601.144820024521</v>
+        <v>1020.847122105393</v>
       </c>
       <c r="X5" t="n">
-        <v>1601.144820024521</v>
+        <v>1020.847122105393</v>
       </c>
       <c r="Y5" t="n">
-        <v>1211.005488048709</v>
+        <v>1020.847122105393</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.2981106200058</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8450813388788</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9106716776275</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6732166721721</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.138658699057</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182524</v>
+        <v>165.2626649141729</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057915</v>
+        <v>69.80729798300612</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>508.4654164929048</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744476</v>
+        <v>766.0165520528924</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733668</v>
+        <v>1085.923447521402</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1428.705971516033</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506775</v>
+        <v>1720.065217770599</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>1934.5736333315</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2154.745546059887</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>1940.358237037917</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.362603338762</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.12524661056</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.273746405028</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.513447640074</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1087.683159487371</v>
+        <v>410.5967303107157</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>410.5967303107157</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>410.5967303107157</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>410.5967303107157</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>410.5967303107157</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>303.6661428091322</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>153.6259293129249</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>58.6963092017423</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>213.7203003246705</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>467.6240706728883</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>745.7191196640786</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>1022.636306385109</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1262.397853152952</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1444.034594271086</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1377.190882465729</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1178.011396849955</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>954.407539542579</v>
       </c>
       <c r="U7" t="n">
-        <v>1087.683159487371</v>
+        <v>665.2812185166025</v>
       </c>
       <c r="V7" t="n">
-        <v>1087.683159487371</v>
+        <v>410.5967303107157</v>
       </c>
       <c r="W7" t="n">
-        <v>1087.683159487371</v>
+        <v>410.5967303107157</v>
       </c>
       <c r="X7" t="n">
-        <v>1087.683159487371</v>
+        <v>410.5967303107157</v>
       </c>
       <c r="Y7" t="n">
-        <v>1087.683159487371</v>
+        <v>410.5967303107157</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2361.386702945269</v>
+        <v>1785.600156360222</v>
       </c>
       <c r="C8" t="n">
-        <v>1992.424186004858</v>
+        <v>1416.63763941981</v>
       </c>
       <c r="D8" t="n">
-        <v>1634.158487398107</v>
+        <v>1058.37194081306</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>672.5836882148155</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>261.597783425208</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
@@ -4847,7 +4849,7 @@
         <v>2562.339328400155</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.339328400155</v>
+        <v>2172.199996424344</v>
       </c>
     </row>
     <row r="9">
@@ -4863,43 +4865,43 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>143.6627691908465</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143493</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L9" t="n">
-        <v>884.908532145821</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701986</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q9" t="n">
         <v>2538.001278676482</v>
@@ -4914,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1087.683159487371</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C10" t="n">
-        <v>918.7469765594642</v>
+        <v>837.0793422748035</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>686.9627028624677</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>539.0496092800746</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>392.1596617821642</v>
       </c>
       <c r="G10" t="n">
         <v>305.8408313751036</v>
@@ -4957,10 +4959,10 @@
         <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -5005,7 +5007,7 @@
         <v>1408.45656917648</v>
       </c>
       <c r="Y10" t="n">
-        <v>1269.331624317611</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.7704558796252</v>
+        <v>921.7704558796238</v>
       </c>
       <c r="C11" t="n">
-        <v>552.8079389392135</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="D11" t="n">
-        <v>194.542240332463</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E11" t="n">
-        <v>108.5090151927147</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F11" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912086</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.509627919557</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943747</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="12">
@@ -5109,22 +5111,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5133,13 +5135,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.837793613838</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="C13" t="n">
-        <v>163.837793613838</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D13" t="n">
-        <v>163.837793613838</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E13" t="n">
-        <v>163.837793613838</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F13" t="n">
-        <v>163.837793613838</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H13" t="n">
         <v>163.837793613838</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U13" t="n">
         <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>590.8070661251681</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271517</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="Y13" t="n">
-        <v>163.837793613838</v>
+        <v>477.7578170212613</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1179.52858457759</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C14" t="n">
-        <v>810.5660676371781</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D14" t="n">
-        <v>452.3003690304276</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E14" t="n">
-        <v>66.51211643218342</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F14" t="n">
-        <v>66.51211643218342</v>
+        <v>821.1650657389511</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939505</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296683</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052365</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609168</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136263</v>
       </c>
       <c r="T14" t="n">
-        <v>3267.095534218452</v>
+        <v>3215.315153136263</v>
       </c>
       <c r="U14" t="n">
-        <v>3013.565057492288</v>
+        <v>3215.315153136263</v>
       </c>
       <c r="V14" t="n">
-        <v>2682.502170148718</v>
+        <v>3215.315153136263</v>
       </c>
       <c r="W14" t="n">
-        <v>2329.733514878603</v>
+        <v>3215.315153136263</v>
       </c>
       <c r="X14" t="n">
-        <v>1956.267756617523</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y14" t="n">
-        <v>1566.128424641711</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="15">
@@ -5346,22 +5348,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5370,13 +5372,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218342</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218342</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218342</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218342</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279951</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621296</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251691</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271517</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.0249360836216</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1575.942324366272</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C17" t="n">
-        <v>1575.942324366272</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D17" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E17" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F17" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H17" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
         <v>3325.60582160917</v>
@@ -5543,22 +5545,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T17" t="n">
-        <v>3276.909433943012</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U17" t="n">
-        <v>3023.378957216848</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V17" t="n">
-        <v>2692.316069873278</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W17" t="n">
-        <v>2339.547414603163</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X17" t="n">
-        <v>1966.081656342083</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y17" t="n">
-        <v>1575.942324366272</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="18">
@@ -5583,22 +5585,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5607,13 +5609,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>793.5839474470786</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="C19" t="n">
-        <v>624.6477645191717</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="D19" t="n">
-        <v>624.6477645191717</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="E19" t="n">
-        <v>624.6477645191717</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H19" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T19" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U19" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V19" t="n">
-        <v>1161.740577577775</v>
+        <v>881.8947677952821</v>
       </c>
       <c r="W19" t="n">
-        <v>1161.740577577775</v>
+        <v>881.8947677952821</v>
       </c>
       <c r="X19" t="n">
-        <v>975.2324122773183</v>
+        <v>881.8947677952821</v>
       </c>
       <c r="Y19" t="n">
-        <v>975.2324122773183</v>
+        <v>661.1021886517519</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2005.586939522201</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C20" t="n">
-        <v>1636.624422581789</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D20" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G20" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5762,13 +5764,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
@@ -5780,22 +5782,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.60582160917</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W20" t="n">
-        <v>3155.791869823214</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X20" t="n">
-        <v>2782.326111562134</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="Y20" t="n">
-        <v>2392.186779586323</v>
+        <v>2435.796531379707</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I21" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>773.7942044041906</v>
+        <v>662.9318377313859</v>
       </c>
       <c r="C22" t="n">
-        <v>604.8580214762837</v>
+        <v>493.9956548034791</v>
       </c>
       <c r="D22" t="n">
-        <v>604.8580214762837</v>
+        <v>343.8790153911433</v>
       </c>
       <c r="E22" t="n">
-        <v>456.9449278938906</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F22" t="n">
-        <v>310.0549803959802</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H22" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I22" t="n">
         <v>66.5121164321834</v>
@@ -5944,16 +5946,16 @@
         <v>1837.464090846021</v>
       </c>
       <c r="V22" t="n">
-        <v>1693.641969312938</v>
+        <v>1582.779602640134</v>
       </c>
       <c r="W22" t="n">
-        <v>1404.224799275978</v>
+        <v>1293.362432603173</v>
       </c>
       <c r="X22" t="n">
-        <v>1176.23524837796</v>
+        <v>1065.372881705156</v>
       </c>
       <c r="Y22" t="n">
-        <v>955.4426692344304</v>
+        <v>844.5803025616257</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1175.344218980305</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C23" t="n">
-        <v>1175.344218980305</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D23" t="n">
-        <v>817.078520373555</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E23" t="n">
-        <v>817.078520373555</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F23" t="n">
-        <v>406.0926155839475</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
         <v>108.5090151927147</v>
@@ -5987,7 +5989,7 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
         <v>589.2106210810553</v>
@@ -6002,10 +6004,10 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
@@ -6017,22 +6019,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450753</v>
+        <v>3164.769171255616</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.975386180638</v>
+        <v>2812.000515985501</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.509627919559</v>
+        <v>2438.534757724422</v>
       </c>
       <c r="Y23" t="n">
-        <v>1308.370295943747</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="24">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>551.0642295677644</v>
+        <v>2405.758056700422</v>
       </c>
       <c r="C25" t="n">
-        <v>382.1280466398575</v>
+        <v>2236.821873772515</v>
       </c>
       <c r="D25" t="n">
-        <v>382.1280466398575</v>
+        <v>2086.705234360179</v>
       </c>
       <c r="E25" t="n">
-        <v>234.2149530574644</v>
+        <v>1938.792140777786</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574644</v>
+        <v>1791.902193279876</v>
       </c>
       <c r="G25" t="n">
-        <v>66.5121164321834</v>
+        <v>1624.199356654595</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>1477.982169872453</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J25" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N25" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O25" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P25" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S25" t="n">
-        <v>1645.778206672847</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T25" t="n">
-        <v>1424.011591242373</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U25" t="n">
-        <v>1134.908724368016</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V25" t="n">
-        <v>880.2242361621296</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W25" t="n">
-        <v>590.8070661251691</v>
+        <v>3036.188651572209</v>
       </c>
       <c r="X25" t="n">
-        <v>551.0642295677644</v>
+        <v>2808.199100674192</v>
       </c>
       <c r="Y25" t="n">
-        <v>551.0642295677644</v>
+        <v>2587.406521530662</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1208.812782134349</v>
+        <v>2209.232076102164</v>
       </c>
       <c r="C26" t="n">
-        <v>839.8502651939375</v>
+        <v>1840.269559161753</v>
       </c>
       <c r="D26" t="n">
-        <v>481.5845665871869</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E26" t="n">
-        <v>481.5845665871869</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
         <v>66.5121164321834</v>
@@ -6227,13 +6229,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6254,22 +6256,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3296.379731775211</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>3042.849255049048</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V26" t="n">
-        <v>2711.786367705477</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W26" t="n">
-        <v>2359.017712435363</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X26" t="n">
-        <v>1985.551954174283</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y26" t="n">
-        <v>1595.412622198471</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="27">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>590.8070661251691</v>
+        <v>1861.970701620179</v>
       </c>
       <c r="C28" t="n">
-        <v>590.8070661251691</v>
+        <v>1693.034518692272</v>
       </c>
       <c r="D28" t="n">
-        <v>590.8070661251691</v>
+        <v>1611.713337450771</v>
       </c>
       <c r="E28" t="n">
-        <v>590.8070661251691</v>
+        <v>1611.713337450771</v>
       </c>
       <c r="F28" t="n">
-        <v>477.7578170212613</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="G28" t="n">
-        <v>310.0549803959802</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H28" t="n">
-        <v>163.837793613838</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J28" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K28" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L28" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M28" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N28" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O28" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P28" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q28" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R28" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S28" t="n">
-        <v>1645.778206672847</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T28" t="n">
-        <v>1424.011591242373</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U28" t="n">
-        <v>1134.908724368016</v>
+        <v>3036.502954734814</v>
       </c>
       <c r="V28" t="n">
-        <v>880.2242361621296</v>
+        <v>2781.818466528927</v>
       </c>
       <c r="W28" t="n">
-        <v>590.8070661251691</v>
+        <v>2492.401296491966</v>
       </c>
       <c r="X28" t="n">
-        <v>590.8070661251691</v>
+        <v>2264.411745593949</v>
       </c>
       <c r="Y28" t="n">
-        <v>590.8070661251691</v>
+        <v>2043.619166450419</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="C29" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D29" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
         <v>66.51211643218342</v>
@@ -6464,7 +6466,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6488,25 +6490,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U29" t="n">
-        <v>3154.392095650268</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>2823.329208306698</v>
+        <v>2428.563654276052</v>
       </c>
       <c r="W29" t="n">
-        <v>2470.560553036583</v>
+        <v>2428.563654276052</v>
       </c>
       <c r="X29" t="n">
-        <v>2097.094794775503</v>
+        <v>2055.097896014972</v>
       </c>
       <c r="Y29" t="n">
-        <v>1706.955462799692</v>
+        <v>1664.958564039161</v>
       </c>
     </row>
     <row r="30">
@@ -6531,22 +6533,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L30" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>370.0144869816389</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C31" t="n">
-        <v>370.0144869816389</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D31" t="n">
-        <v>370.0144869816389</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E31" t="n">
-        <v>370.0144869816389</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F31" t="n">
-        <v>370.0144869816389</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G31" t="n">
         <v>212.7293032143256</v>
@@ -6643,28 +6645,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1837.464090846021</v>
+        <v>1911.724010506414</v>
       </c>
       <c r="S31" t="n">
-        <v>1645.778206672847</v>
+        <v>1720.03812633324</v>
       </c>
       <c r="T31" t="n">
-        <v>1424.011591242373</v>
+        <v>1720.03812633324</v>
       </c>
       <c r="U31" t="n">
-        <v>1134.908724368016</v>
+        <v>1720.03812633324</v>
       </c>
       <c r="V31" t="n">
-        <v>880.2242361621296</v>
+        <v>1465.353638127353</v>
       </c>
       <c r="W31" t="n">
-        <v>590.8070661251691</v>
+        <v>1175.936468090393</v>
       </c>
       <c r="X31" t="n">
-        <v>590.8070661251691</v>
+        <v>1175.936468090393</v>
       </c>
       <c r="Y31" t="n">
-        <v>370.0144869816389</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2345.167438673965</v>
+        <v>1811.579746109088</v>
       </c>
       <c r="C32" t="n">
-        <v>1976.204921733553</v>
+        <v>1442.617229168676</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
@@ -6701,13 +6703,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060171</v>
@@ -6725,25 +6727,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V32" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W32" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X32" t="n">
-        <v>3121.906610713899</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y32" t="n">
-        <v>2731.767278738087</v>
+        <v>2198.17958617321</v>
       </c>
     </row>
     <row r="33">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>362.8175152271517</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C34" t="n">
-        <v>362.8175152271517</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D34" t="n">
-        <v>362.8175152271517</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E34" t="n">
-        <v>362.8175152271517</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F34" t="n">
-        <v>362.8175152271517</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
         <v>66.5121164321834</v>
@@ -6886,22 +6888,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T34" t="n">
-        <v>1424.011591242373</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U34" t="n">
-        <v>1134.908724368016</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V34" t="n">
-        <v>880.2242361621296</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W34" t="n">
-        <v>590.8070661251691</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X34" t="n">
-        <v>362.8175152271517</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y34" t="n">
-        <v>362.8175152271517</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1712.341567565137</v>
+        <v>1491.569348694471</v>
       </c>
       <c r="C35" t="n">
-        <v>1343.379050624726</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D35" t="n">
-        <v>1320.35562273557</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E35" t="n">
-        <v>934.5673701373257</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F35" t="n">
-        <v>523.5814653477182</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R35" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U35" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V35" t="n">
-        <v>3215.315153136265</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W35" t="n">
-        <v>2862.546497866151</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X35" t="n">
-        <v>2489.080739605071</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y35" t="n">
-        <v>2098.941407629259</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7044,22 +7046,22 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>848.0708164780106</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C37" t="n">
-        <v>679.1346335501037</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D37" t="n">
-        <v>529.0179941377679</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E37" t="n">
-        <v>381.1049005553748</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574644</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G37" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P37" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T37" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U37" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="V37" t="n">
-        <v>1767.918581386758</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="W37" t="n">
-        <v>1478.501411349798</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X37" t="n">
-        <v>1250.51186045178</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y37" t="n">
-        <v>1029.71928130825</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1127.748203495403</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C38" t="n">
-        <v>758.7856865549913</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D38" t="n">
-        <v>400.5199879482408</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E38" t="n">
-        <v>400.5199879482408</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F38" t="n">
-        <v>400.5199879482408</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G38" t="n">
-        <v>400.5199879482408</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7196,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U38" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W38" t="n">
-        <v>2277.953133796416</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X38" t="n">
-        <v>1904.487375535336</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y38" t="n">
-        <v>1514.348043559525</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I39" t="n">
         <v>66.5121164321834</v>
@@ -7257,7 +7259,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7284,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7330,7 +7332,7 @@
         <v>1464.823389952861</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399796</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K40" t="n">
         <v>1713.933205348673</v>
@@ -7342,19 +7344,19 @@
         <v>2374.650049396718</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102582</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O40" t="n">
         <v>3015.388025022996</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456655</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S40" t="n">
         <v>3150.225125372326</v>
@@ -7372,10 +7374,10 @@
         <v>2095.253984824648</v>
       </c>
       <c r="X40" t="n">
-        <v>1867.26443392663</v>
+        <v>1867.264433926631</v>
       </c>
       <c r="Y40" t="n">
-        <v>1646.4718547831</v>
+        <v>1646.471854783101</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2222.416181075865</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="C41" t="n">
-        <v>1976.204921733553</v>
+        <v>926.2736972002947</v>
       </c>
       <c r="D41" t="n">
-        <v>1617.939223126803</v>
+        <v>568.0079985935442</v>
       </c>
       <c r="E41" t="n">
-        <v>1232.150970528558</v>
+        <v>568.0079985935442</v>
       </c>
       <c r="F41" t="n">
-        <v>821.1650657389509</v>
+        <v>568.0079985935442</v>
       </c>
       <c r="G41" t="n">
         <v>406.0926155839475</v>
@@ -7406,55 +7408,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U41" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V41" t="n">
-        <v>2961.784676410101</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W41" t="n">
-        <v>2609.016021139987</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X41" t="n">
-        <v>2609.016021139987</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y41" t="n">
-        <v>2609.016021139987</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7494,7 +7496,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7521,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>142.0249360836216</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C43" t="n">
-        <v>142.0249360836216</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D43" t="n">
-        <v>142.0249360836216</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E43" t="n">
-        <v>142.0249360836216</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F43" t="n">
-        <v>142.0249360836216</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G43" t="n">
-        <v>142.0249360836216</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H43" t="n">
-        <v>142.0249360836216</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7594,25 +7596,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T43" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U43" t="n">
-        <v>1134.908724368016</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V43" t="n">
-        <v>880.2242361621296</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="W43" t="n">
-        <v>590.8070661251691</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="X43" t="n">
-        <v>362.8175152271517</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y43" t="n">
-        <v>142.0249360836216</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="44">
@@ -7622,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1381.278680221567</v>
+        <v>2196.097994299122</v>
       </c>
       <c r="C44" t="n">
-        <v>1381.278680221567</v>
+        <v>1827.13547735871</v>
       </c>
       <c r="D44" t="n">
-        <v>1023.012981614816</v>
+        <v>1468.86977875196</v>
       </c>
       <c r="E44" t="n">
-        <v>817.078520373555</v>
+        <v>1083.081526153716</v>
       </c>
       <c r="F44" t="n">
-        <v>406.0926155839475</v>
+        <v>672.0956213641082</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>257.0231712091046</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912079</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
@@ -7673,25 +7675,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V44" t="n">
-        <v>2884.252265792694</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W44" t="n">
-        <v>2531.48361052258</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X44" t="n">
-        <v>2158.0178522615</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="Y44" t="n">
-        <v>1767.878520285688</v>
+        <v>2582.697834363244</v>
       </c>
     </row>
     <row r="45">
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>793.5839474470786</v>
+        <v>651.5308283972846</v>
       </c>
       <c r="C46" t="n">
-        <v>624.6477645191717</v>
+        <v>651.5308283972846</v>
       </c>
       <c r="D46" t="n">
-        <v>624.6477645191717</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E46" t="n">
-        <v>624.6477645191717</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H46" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
         <v>66.5121164321834</v>
@@ -7828,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1848.555087994756</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1848.555087994756</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>1626.788472564283</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U46" t="n">
-        <v>1337.685605689926</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V46" t="n">
-        <v>1083.001117484039</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W46" t="n">
-        <v>793.5839474470786</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X46" t="n">
-        <v>793.5839474470786</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y46" t="n">
-        <v>793.5839474470786</v>
+        <v>651.5308283972846</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>211.0329012241564</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,10 +8297,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>211.0329012241562</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>127.9776909938866</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>30.36925650589403</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>30.36925650589438</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9264,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22556,16 +22558,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G2" t="n">
-        <v>399.183490414848</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>153.9587531507271</v>
       </c>
     </row>
     <row r="3">
@@ -22623,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>39.76186349355777</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22689,7 +22691,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22717,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22756,22 +22758,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>47.86881082231267</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>216.8034931298451</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22781,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22799,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>131.2282349516639</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,10 +22834,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
-        <v>183.1140990043654</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -22850,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22911,16 +22913,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>63.51490978726187</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -22942,19 +22944,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>60.5902194843642</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -22996,10 +22998,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>259.9205519184685</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>183.7907424631439</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23033,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>203.3002158843212</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23087,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23191,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>80.85095794181414</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -23245,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>80.85095794181407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23258,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>220.0509458470736</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>296.757477183911</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23428,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>113.7908987761694</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.59472895491427</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>145.9927856228084</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>277.2566436803287</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>172.25738095949</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23750,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T17" t="n">
-        <v>155.7085463501237</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>168.0688818921509</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23890,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.653826316821863</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>41.06657174158462</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>293.0110398847959</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23984,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,22 +24022,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>181.1251564493167</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>37.86654093622711</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>109.7537430060765</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24203,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>251.0380254696735</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24218,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24257,13 +24259,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>277.711736408292</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>83.32522828944201</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>186.3642471972066</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>134.5760089460827</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,13 +24496,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>174.984141204001</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>68.10750358912627</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>33.50229141006257</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24698,7 +24700,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>81.49358325958886</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>3.781416697045813</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>10.31347632938807</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>73.51732046378918</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24920,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>233.6440512519076</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24932,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24965,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24980,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>168.0688818921504</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>113.7908987761685</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25157,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>331.8898480104187</v>
+        <v>97.95568926599873</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25166,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -25369,10 +25371,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>94.3554362891108</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>172.25738095949</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25394,10 +25396,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>255.1805474109845</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25406,10 +25408,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>5.516901359349561</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>16.14213605696594</v>
+        <v>16.14213605696548</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25628,19 +25630,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>121.5237450221188</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>250.6254964739526</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25679,13 +25681,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>21.59472895491427</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,22 +25836,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>171.9462208285107</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25865,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>178.0552534434131</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>106.0018201581684</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -25922,13 +25924,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>26.66173399268035</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>10.98008717724831</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -26089,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>779378.7168172045</v>
+        <v>520652.8487226733</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>779378.7168172043</v>
+        <v>711887.142618594</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>779378.7168172041</v>
+        <v>779378.7168172044</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>859812.0750074497</v>
+        <v>859812.0750074494</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>859812.0750074496</v>
+        <v>859812.0750074495</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>859812.0750074495</v>
+        <v>859812.0750074496</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>859812.0750074497</v>
+        <v>859812.0750074498</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>859812.0750074496</v>
+        <v>859812.0750074497</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>859812.0750074497</v>
+        <v>859812.0750074495</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>859812.0750074496</v>
+        <v>859812.0750074497</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>305971.6304943086</v>
+        <v>203966.5811971124</v>
       </c>
       <c r="C2" t="n">
-        <v>305971.6304943087</v>
+        <v>279547.2423401894</v>
       </c>
       <c r="D2" t="n">
         <v>305971.6304943085</v>
@@ -26323,28 +26325,28 @@
         <v>340997.0989709205</v>
       </c>
       <c r="F2" t="n">
-        <v>340997.0989709204</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="G2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="H2" t="n">
         <v>340997.0989709204</v>
       </c>
       <c r="I2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="J2" t="n">
-        <v>340997.0989709204</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="K2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="L2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="M2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709204</v>
       </c>
       <c r="N2" t="n">
         <v>340997.0989709205</v>
@@ -26353,7 +26355,7 @@
         <v>340997.0989709205</v>
       </c>
       <c r="P2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709206</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26365,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>308174.1417414034</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>99404.1828459611</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171905</v>
+        <v>182072.97981719</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>71651.52831447156</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>24921.83922824953</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341485</v>
+        <v>47552.26579341439</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.139184627798386e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.641531071072677e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14971.45584523219</v>
+        <v>10965.07562050203</v>
       </c>
       <c r="C4" t="n">
-        <v>14971.45584523219</v>
+        <v>13464.32877611455</v>
       </c>
       <c r="D4" t="n">
         <v>14971.45584523218</v>
       </c>
       <c r="E4" t="n">
-        <v>7940.571207054552</v>
+        <v>7940.57120705457</v>
       </c>
       <c r="F4" t="n">
-        <v>7940.571207054552</v>
+        <v>7940.571207054571</v>
       </c>
       <c r="G4" t="n">
-        <v>7940.571207054552</v>
+        <v>7940.57120705457</v>
       </c>
       <c r="H4" t="n">
         <v>7940.571207054552</v>
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139326</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139324</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="H5" t="n">
         <v>74306.34056139328</v>
@@ -26500,13 +26502,13 @@
         <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
         <v>74306.34056139328</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-916689.3813666878</v>
+        <v>-550134.278218849</v>
       </c>
       <c r="C6" t="n">
-        <v>198062.4022092318</v>
+        <v>-127290.3100332008</v>
       </c>
       <c r="D6" t="n">
-        <v>198062.4022092317</v>
+        <v>98658.21936327049</v>
       </c>
       <c r="E6" t="n">
-        <v>76677.20738528219</v>
+        <v>76677.20738528269</v>
       </c>
       <c r="F6" t="n">
-        <v>258750.1872024726</v>
+        <v>258750.1872024728</v>
       </c>
       <c r="G6" t="n">
+        <v>258750.1872024727</v>
+      </c>
+      <c r="H6" t="n">
+        <v>258750.1872024722</v>
+      </c>
+      <c r="I6" t="n">
+        <v>258750.1872024727</v>
+      </c>
+      <c r="J6" t="n">
+        <v>189751.0327833587</v>
+      </c>
+      <c r="K6" t="n">
+        <v>187098.6588880011</v>
+      </c>
+      <c r="L6" t="n">
+        <v>233828.3479742232</v>
+      </c>
+      <c r="M6" t="n">
+        <v>211197.9214090582</v>
+      </c>
+      <c r="N6" t="n">
+        <v>258750.1872024724</v>
+      </c>
+      <c r="O6" t="n">
+        <v>258750.1872024725</v>
+      </c>
+      <c r="P6" t="n">
         <v>258750.1872024728</v>
-      </c>
-      <c r="H6" t="n">
-        <v>258750.1872024725</v>
-      </c>
-      <c r="I6" t="n">
-        <v>258750.1872024728</v>
-      </c>
-      <c r="J6" t="n">
-        <v>91145.00939249004</v>
-      </c>
-      <c r="K6" t="n">
-        <v>258750.1872024726</v>
-      </c>
-      <c r="L6" t="n">
-        <v>258750.1872024727</v>
-      </c>
-      <c r="M6" t="n">
-        <v>211197.9214090579</v>
-      </c>
-      <c r="N6" t="n">
-        <v>258750.1872024726</v>
-      </c>
-      <c r="O6" t="n">
-        <v>258750.1872024726</v>
-      </c>
-      <c r="P6" t="n">
-        <v>258750.1872024727</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175393</v>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>263.7138800015061</v>
+      </c>
+      <c r="C4" t="n">
+        <v>542.1149567261632</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
-      <c r="C4" t="n">
-        <v>640.5848321000389</v>
-      </c>
-      <c r="D4" t="n">
-        <v>640.5848321000387</v>
-      </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402292</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022925</v>
@@ -26820,13 +26822,13 @@
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022925</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>239.6556507682059</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>80.35422757985521</v>
       </c>
       <c r="E3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757585</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>278.4010767246571</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>98.46987537387565</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022533</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>278.4010767246572</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>98.46987537387554</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022532</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>278.4010767246571</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>98.46987537387565</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022533</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H15" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q16" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32807,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33044,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33518,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H36" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q37" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34153,7 +34155,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.198736356356</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
         <v>99.83230779806951</v>
@@ -34366,7 +34368,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953979</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
         <v>557.281137600381</v>
@@ -34457,7 +34459,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>602.2300008170303</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>423.1432842295773</v>
       </c>
       <c r="L6" t="n">
-        <v>508.7132618620064</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>222.3958714428157</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>13.85280893410651</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>15.48193198348409</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>156.5898900231598</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>256.4684548971897</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>280.9040898900911</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>279.7143300212425</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>242.1833805735793</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>183.4714556748827</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>42.74826709349593</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>93.34947739681148</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
         <v>451.0527332560634</v>
@@ -35267,7 +35269,7 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>280.0487856294267</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667037</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222388</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687116</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38105,7 +38107,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>699380.420802478</v>
+        <v>730005.9234762467</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12395515.18280278</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5739665.974240758</v>
+        <v>5871787.915011358</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9709974.432811251</v>
+        <v>9642482.85861264</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>44.17631987491158</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>54.5334730756996</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518635</v>
+        <v>120.0452866213299</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>26.17372043046393</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838588</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T3" t="n">
-        <v>192.0665623188214</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>103.4602480330962</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>79.41653965146601</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38.69402552984926</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>178.4795138642701</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>79.41653965146601</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>178.7960897571498</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>89.12985772078918</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>175.1527154056557</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>103.3387326418228</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>189.0284157155971</v>
       </c>
     </row>
     <row r="11">
@@ -1372,16 +1372,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>241.269882779925</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>117.0602861317418</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>59.9032091929889</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>150.0235148602544</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,16 +1609,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>284.3613655241663</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>43.83162758969668</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1779,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>239.0480076404111</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>178.3998645863282</v>
       </c>
     </row>
     <row r="17">
@@ -1846,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>211.0785184722394</v>
       </c>
       <c r="D17" t="n">
-        <v>323.9708417730891</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,13 +2010,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>111.7244765928106</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>119.9060959700526</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2083,16 +2083,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>225.750889292395</v>
+        <v>101.8907566840625</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>113.5103646250813</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>79.4921923050191</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>195.0465954186442</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>24.14763241892726</v>
       </c>
     </row>
     <row r="24">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>35.19569619650095</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,7 +2572,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>226.0299399030559</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>268.8390607402545</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>163.6898441249713</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2769,13 +2769,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>94.67055111186201</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>102.8695072550965</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>224.741181018771</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>69.60662835550703</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>220.8200743446551</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>318.407017942995</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>73.42231422077042</v>
       </c>
     </row>
     <row r="33">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.6898441249713</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>18.26879610204007</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>179.049755630705</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>199.7325946875369</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>88.23797643592248</v>
       </c>
       <c r="H37" t="n">
-        <v>43.54171107304287</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3520,7 +3520,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -3562,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>54.87175400786827</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814261</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>172.0738300495864</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>10.20389322926706</v>
       </c>
     </row>
     <row r="41">
@@ -3742,16 +3742,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>192.0524966157152</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>61.29257748216965</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,16 +3903,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>35.19569619650095</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>34.98723076369722</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>375.1195677819298</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>329.8726463348937</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4146,10 +4146,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>33.79426090525313</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>135.8241034250917</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>850.6201014348526</v>
+        <v>467.4160297165852</v>
       </c>
       <c r="C2" t="n">
-        <v>481.6575844944409</v>
+        <v>98.45351277617345</v>
       </c>
       <c r="D2" t="n">
-        <v>481.6575844944409</v>
+        <v>98.45351277617345</v>
       </c>
       <c r="E2" t="n">
-        <v>95.86933189619663</v>
+        <v>98.45351277617345</v>
       </c>
       <c r="F2" t="n">
-        <v>95.86933189619663</v>
+        <v>98.45351277617345</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>98.45351277617345</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>98.45351277617345</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="V2" t="n">
-        <v>2353.59368700598</v>
+        <v>1583.789775223591</v>
       </c>
       <c r="W2" t="n">
-        <v>2000.825031735866</v>
+        <v>1231.021119953477</v>
       </c>
       <c r="X2" t="n">
-        <v>1627.359273474786</v>
+        <v>857.5553616923969</v>
       </c>
       <c r="Y2" t="n">
-        <v>1237.219941498974</v>
+        <v>467.4160297165852</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>741.2269528280654</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>741.2269528280654</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>592.2925431668141</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>433.0550881613586</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>286.5205301882436</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.2626649141729</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>69.80729798300611</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>214.3836900926279</v>
       </c>
       <c r="K3" t="n">
-        <v>483.0441129489467</v>
+        <v>427.1868157183615</v>
       </c>
       <c r="L3" t="n">
-        <v>1117.223096727985</v>
+        <v>684.7379512783491</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>1004.644846746858</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1347.42737074149</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1638.786616996056</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>1853.295032556956</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2154.745546059887</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2029.49516640637</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>1834.784844880346</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>1606.683255013611</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1371.531146781868</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1117.293790053666</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>909.4422898481334</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>909.4422898481334</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131.4655134886758</v>
+        <v>147.8744975816246</v>
       </c>
       <c r="C4" t="n">
-        <v>131.4655134886758</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="D4" t="n">
-        <v>131.4655134886758</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="E4" t="n">
-        <v>131.4655134886758</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>58.6963092017423</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>213.7203003246705</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>467.6240706728883</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>745.7191196640786</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>1022.636306385109</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1262.397853152952</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1444.034594271086</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1377.190882465729</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1178.011396849955</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269233</v>
+        <v>954.407539542579</v>
       </c>
       <c r="U4" t="n">
-        <v>1124.349301773071</v>
+        <v>665.2812185166025</v>
       </c>
       <c r="V4" t="n">
-        <v>869.6648135671838</v>
+        <v>665.2812185166025</v>
       </c>
       <c r="W4" t="n">
-        <v>580.2476435302233</v>
+        <v>375.8640484796419</v>
       </c>
       <c r="X4" t="n">
-        <v>352.2580926322059</v>
+        <v>147.8744975816246</v>
       </c>
       <c r="Y4" t="n">
-        <v>131.4655134886758</v>
+        <v>147.8744975816246</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1605.165657180484</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="C5" t="n">
-        <v>1236.203140240072</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="D5" t="n">
-        <v>877.9374416333219</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E5" t="n">
         <v>877.9374416333219</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>2382.056991163518</v>
       </c>
       <c r="W5" t="n">
-        <v>1644.250531453059</v>
+        <v>2382.056991163518</v>
       </c>
       <c r="X5" t="n">
-        <v>1644.250531453059</v>
+        <v>2008.591232902438</v>
       </c>
       <c r="Y5" t="n">
-        <v>1644.250531453059</v>
+        <v>2008.591232902438</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
@@ -4649,22 +4649,22 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L6" t="n">
-        <v>801.944955774447</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330612</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>131.4655134886758</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C7" t="n">
-        <v>131.4655134886758</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D7" t="n">
-        <v>131.4655134886758</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E7" t="n">
-        <v>131.4655134886758</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>131.4655134886758</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
         <v>51.2467865680031</v>
@@ -4755,22 +4755,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269233</v>
+        <v>1455.84400920869</v>
       </c>
       <c r="U7" t="n">
-        <v>1124.349301773071</v>
+        <v>1166.725671712527</v>
       </c>
       <c r="V7" t="n">
-        <v>869.6648135671838</v>
+        <v>912.0411835066404</v>
       </c>
       <c r="W7" t="n">
-        <v>580.2476435302233</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="X7" t="n">
-        <v>352.2580926322059</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y7" t="n">
-        <v>131.4655134886758</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>918.0161179218646</v>
+        <v>141.2769458819316</v>
       </c>
       <c r="C8" t="n">
-        <v>918.0161179218646</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D8" t="n">
-        <v>918.0161179218646</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E8" t="n">
-        <v>532.2278653236203</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F8" t="n">
-        <v>355.3059305704328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
         <v>51.2467865680031</v>
@@ -4804,16 +4804,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
         <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796629</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
         <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182944</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X8" t="n">
-        <v>918.0161179218646</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y8" t="n">
-        <v>918.0161179218646</v>
+        <v>527.8767859460534</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
@@ -4886,22 +4886,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143496</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458213</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q9" t="n">
         <v>2538.001278676482</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>155.6293447920665</v>
+        <v>812.8918298888575</v>
       </c>
       <c r="C10" t="n">
-        <v>155.6293447920665</v>
+        <v>812.8918298888575</v>
       </c>
       <c r="D10" t="n">
-        <v>155.6293447920665</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="E10" t="n">
-        <v>155.6293447920665</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
         <v>51.2467865680031</v>
@@ -4962,25 +4962,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U10" t="n">
-        <v>927.7205539329314</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V10" t="n">
-        <v>673.0360657270445</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="W10" t="n">
-        <v>383.6188956900839</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="X10" t="n">
-        <v>155.6293447920665</v>
+        <v>1185.478088371216</v>
       </c>
       <c r="Y10" t="n">
-        <v>155.6293447920665</v>
+        <v>994.5402947190972</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1792.126722677732</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C11" t="n">
-        <v>1792.126722677732</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="D11" t="n">
-        <v>1433.861024070982</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X11" t="n">
-        <v>2182.266054653544</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y11" t="n">
-        <v>1792.126722677732</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="12">
@@ -5117,16 +5117,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5138,10 +5138,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>657.6489837069648</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="C13" t="n">
-        <v>657.6489837069648</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D13" t="n">
-        <v>507.5323442946291</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E13" t="n">
-        <v>359.619250712236</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F13" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5220,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1615.697475415546</v>
+        <v>1866.786255974363</v>
       </c>
       <c r="U13" t="n">
-        <v>1326.59460854119</v>
+        <v>1577.683389100006</v>
       </c>
       <c r="V13" t="n">
-        <v>1175.055704641943</v>
+        <v>1322.998900894119</v>
       </c>
       <c r="W13" t="n">
-        <v>885.6385346049822</v>
+        <v>1033.581730857159</v>
       </c>
       <c r="X13" t="n">
-        <v>657.6489837069648</v>
+        <v>805.5921799591413</v>
       </c>
       <c r="Y13" t="n">
-        <v>657.6489837069648</v>
+        <v>584.7996008156111</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1548.766690866869</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="C14" t="n">
-        <v>1179.804173926457</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D14" t="n">
-        <v>892.5704713767946</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5302,28 +5302,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U14" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>2678.274518176917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W14" t="n">
-        <v>2325.505862906803</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X14" t="n">
-        <v>2325.505862906803</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y14" t="n">
-        <v>1935.366530930991</v>
+        <v>1654.235256616835</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5375,10 +5375,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>994.2880032601528</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C16" t="n">
-        <v>825.3518203322459</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D16" t="n">
-        <v>675.2351809199101</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E16" t="n">
-        <v>527.322087337517</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F16" t="n">
-        <v>380.4321398396066</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G16" t="n">
         <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5457,31 +5457,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088492</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U16" t="n">
-        <v>1638.191681214136</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V16" t="n">
-        <v>1396.729047233923</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W16" t="n">
-        <v>1396.729047233923</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="X16" t="n">
-        <v>1396.729047233923</v>
+        <v>1188.435514885645</v>
       </c>
       <c r="Y16" t="n">
-        <v>1175.936468090393</v>
+        <v>1008.233631465111</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1605.601998493311</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C17" t="n">
-        <v>1605.601998493311</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D17" t="n">
         <v>1278.358723975039</v>
@@ -5515,16 +5515,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2755.806928794324</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W17" t="n">
-        <v>2755.806928794324</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X17" t="n">
-        <v>2382.341170533244</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y17" t="n">
-        <v>1992.201838557432</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="18">
@@ -5585,31 +5585,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
         <v>2407.411984886741</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>701.1808689801002</v>
+        <v>645.3078929297411</v>
       </c>
       <c r="C19" t="n">
-        <v>532.2446860521933</v>
+        <v>476.3717100018342</v>
       </c>
       <c r="D19" t="n">
-        <v>382.1280466398576</v>
+        <v>326.2550705894985</v>
       </c>
       <c r="E19" t="n">
-        <v>234.2149530574645</v>
+        <v>326.2550705894985</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574645</v>
+        <v>179.3651230915881</v>
       </c>
       <c r="G19" t="n">
         <v>66.51211643218342</v>
@@ -5700,25 +5700,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U19" t="n">
-        <v>1224.739181610489</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V19" t="n">
-        <v>1103.62191295387</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W19" t="n">
-        <v>1103.62191295387</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X19" t="n">
-        <v>1103.62191295387</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y19" t="n">
-        <v>882.8293338103399</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1594.601034732593</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="C20" t="n">
-        <v>1225.638517792182</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D20" t="n">
-        <v>867.3728191854311</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>481.5845665871869</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
         <v>481.5845665871869</v>
@@ -5779,25 +5779,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U20" t="n">
-        <v>3097.574620303721</v>
+        <v>3112.395196889737</v>
       </c>
       <c r="V20" t="n">
-        <v>3097.574620303721</v>
+        <v>2781.332309546166</v>
       </c>
       <c r="W20" t="n">
-        <v>2744.805965033606</v>
+        <v>2428.563654276052</v>
       </c>
       <c r="X20" t="n">
-        <v>2371.340206772526</v>
+        <v>2055.097896014972</v>
       </c>
       <c r="Y20" t="n">
-        <v>1981.200874796715</v>
+        <v>1664.958564039161</v>
       </c>
     </row>
     <row r="21">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181.169050396912</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C22" t="n">
-        <v>181.169050396912</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D22" t="n">
-        <v>181.169050396912</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E22" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F22" t="n">
         <v>66.5121164321834</v>
@@ -5940,22 +5940,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T22" t="n">
-        <v>1424.011591242373</v>
+        <v>1565.483062930404</v>
       </c>
       <c r="U22" t="n">
-        <v>1134.908724368016</v>
+        <v>1565.483062930404</v>
       </c>
       <c r="V22" t="n">
-        <v>880.2242361621296</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="W22" t="n">
-        <v>590.8070661251691</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X22" t="n">
-        <v>362.8175152271517</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y22" t="n">
-        <v>362.8175152271517</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1647.321240915451</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C23" t="n">
-        <v>1278.358723975039</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D23" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E23" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G23" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
         <v>66.5121164321834</v>
@@ -5992,22 +5992,22 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
@@ -6016,25 +6016,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V23" t="n">
-        <v>2994.542934265599</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W23" t="n">
-        <v>2797.526171216464</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X23" t="n">
-        <v>2424.060412955384</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y23" t="n">
-        <v>2033.921080979572</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="24">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>270.9995076393842</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C25" t="n">
-        <v>102.0633247114773</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D25" t="n">
-        <v>102.0633247114773</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E25" t="n">
-        <v>102.0633247114773</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F25" t="n">
         <v>66.5121164321834</v>
@@ -6192,7 +6192,7 @@
         <v>452.6479724696239</v>
       </c>
       <c r="Y25" t="n">
-        <v>452.6479724696239</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2303.170539913434</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C26" t="n">
-        <v>1934.208022973022</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D26" t="n">
-        <v>1575.942324366272</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E26" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U26" t="n">
-        <v>2987.002082527119</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V26" t="n">
-        <v>2655.939195183548</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W26" t="n">
-        <v>2303.170539913434</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X26" t="n">
-        <v>2303.170539913434</v>
+        <v>2006.398526988078</v>
       </c>
       <c r="Y26" t="n">
-        <v>2303.170539913434</v>
+        <v>2006.398526988078</v>
       </c>
     </row>
     <row r="27">
@@ -6296,16 +6296,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>231.8553933260938</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C28" t="n">
-        <v>231.8553933260938</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D28" t="n">
-        <v>231.8553933260938</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E28" t="n">
-        <v>231.8553933260938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>231.8553933260938</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S28" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T28" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U28" t="n">
-        <v>1224.739181610489</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V28" t="n">
-        <v>970.0546934046018</v>
+        <v>1328.384771937462</v>
       </c>
       <c r="W28" t="n">
-        <v>680.6375233676413</v>
+        <v>1328.384771937462</v>
       </c>
       <c r="X28" t="n">
-        <v>452.6479724696239</v>
+        <v>1100.395221039445</v>
       </c>
       <c r="Y28" t="n">
-        <v>231.8553933260938</v>
+        <v>879.6026418959145</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2005.586939522201</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C29" t="n">
-        <v>1636.624422581789</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D29" t="n">
-        <v>1278.358723975039</v>
+        <v>971.2814123723974</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>585.4931597741531</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>585.4931597741531</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218343</v>
+        <v>170.4207096191496</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U29" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W29" t="n">
-        <v>3009.337405520489</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X29" t="n">
-        <v>2782.326111562134</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y29" t="n">
-        <v>2392.186779586323</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="30">
@@ -6518,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G30" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P30" t="n">
         <v>2407.411984886741</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>452.6479724696239</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="C31" t="n">
-        <v>283.7117895417171</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D31" t="n">
-        <v>283.7117895417171</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E31" t="n">
-        <v>283.7117895417171</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F31" t="n">
-        <v>136.8218420438067</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6648,25 +6648,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U31" t="n">
-        <v>1224.739181610489</v>
+        <v>1482.477352511903</v>
       </c>
       <c r="V31" t="n">
-        <v>970.0546934046018</v>
+        <v>1227.792864306016</v>
       </c>
       <c r="W31" t="n">
-        <v>680.6375233676413</v>
+        <v>1227.792864306016</v>
       </c>
       <c r="X31" t="n">
-        <v>452.6479724696239</v>
+        <v>1227.792864306016</v>
       </c>
       <c r="Y31" t="n">
-        <v>452.6479724696239</v>
+        <v>1007.000285162486</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2047.583838282732</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C32" t="n">
-        <v>1678.62132134232</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D32" t="n">
-        <v>1320.35562273557</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E32" t="n">
-        <v>934.5673701373257</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F32" t="n">
-        <v>523.5814653477182</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
         <v>66.5121164321834</v>
@@ -6736,16 +6736,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W32" t="n">
-        <v>2434.183678346854</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X32" t="n">
-        <v>2434.183678346854</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y32" t="n">
-        <v>2434.183678346854</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="33">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66.5121164321834</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C34" t="n">
-        <v>66.5121164321834</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D34" t="n">
-        <v>66.5121164321834</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E34" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F34" t="n">
         <v>66.5121164321834</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1501.213961756484</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C35" t="n">
-        <v>1320.35562273557</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D35" t="n">
-        <v>1320.35562273557</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E35" t="n">
-        <v>934.5673701373257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F35" t="n">
-        <v>523.5814653477182</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>2961.784676410103</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V35" t="n">
-        <v>2630.721789066532</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W35" t="n">
-        <v>2277.953133796418</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X35" t="n">
-        <v>2277.953133796418</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y35" t="n">
-        <v>1887.813801820606</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7022,7 +7022,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>278.1964793938714</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C37" t="n">
-        <v>278.1964793938714</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="D37" t="n">
-        <v>278.1964793938714</v>
+        <v>302.5313330572882</v>
       </c>
       <c r="E37" t="n">
-        <v>278.1964793938714</v>
+        <v>302.5313330572882</v>
       </c>
       <c r="F37" t="n">
-        <v>278.1964793938714</v>
+        <v>155.6413855593778</v>
       </c>
       <c r="G37" t="n">
-        <v>110.4936427685904</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7137,10 +7137,10 @@
         <v>680.6375233676413</v>
       </c>
       <c r="X37" t="n">
-        <v>680.6375233676413</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y37" t="n">
-        <v>459.8449442241111</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1678.62132134232</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C38" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D38" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E38" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F38" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V38" t="n">
-        <v>2884.252265792696</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W38" t="n">
-        <v>2828.826251643334</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X38" t="n">
-        <v>2455.360493382254</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y38" t="n">
-        <v>2065.221161406442</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="39">
@@ -7244,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>381.6654861422326</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C40" t="n">
-        <v>212.7293032143257</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D40" t="n">
-        <v>212.7293032143257</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E40" t="n">
-        <v>212.7293032143257</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
-        <v>212.7293032143257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G40" t="n">
-        <v>212.7293032143257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7356,28 +7356,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T40" t="n">
-        <v>1837.464090846021</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U40" t="n">
-        <v>1548.361223971664</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V40" t="n">
-        <v>1293.676735765777</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W40" t="n">
-        <v>1004.259565728817</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X40" t="n">
-        <v>776.2700148307995</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y40" t="n">
-        <v>555.4774356872693</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1514.348043559525</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C41" t="n">
-        <v>1320.35562273557</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.35562273557</v>
+        <v>971.2814123723965</v>
       </c>
       <c r="E41" t="n">
-        <v>934.5673701373257</v>
+        <v>585.4931597741522</v>
       </c>
       <c r="F41" t="n">
         <v>523.5814653477182</v>
@@ -7411,10 +7411,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7441,22 +7441,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U41" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V41" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W41" t="n">
-        <v>2277.953133796416</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X41" t="n">
-        <v>1904.487375535336</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y41" t="n">
-        <v>1514.348043559525</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="42">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>270.9995076393842</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C43" t="n">
-        <v>102.0633247114773</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D43" t="n">
-        <v>102.0633247114773</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E43" t="n">
-        <v>102.0633247114773</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>102.0633247114773</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G43" t="n">
         <v>66.5121164321834</v>
@@ -7602,19 +7602,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1224.739181610489</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V43" t="n">
-        <v>970.0546934046018</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W43" t="n">
-        <v>680.6375233676413</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X43" t="n">
-        <v>452.6479724696239</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y43" t="n">
-        <v>452.6479724696239</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1678.62132134232</v>
+        <v>1969.423143692379</v>
       </c>
       <c r="C44" t="n">
-        <v>1678.62132134232</v>
+        <v>1600.460626751967</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.35562273557</v>
+        <v>1242.194928145217</v>
       </c>
       <c r="E44" t="n">
-        <v>934.5673701373257</v>
+        <v>856.4066755469726</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>445.420770757365</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
         <v>589.2106210810553</v>
@@ -7657,43 +7657,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993394</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U44" t="n">
-        <v>3119.628073993394</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V44" t="n">
-        <v>2788.565186649823</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="W44" t="n">
-        <v>2455.360493382254</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="X44" t="n">
-        <v>2455.360493382254</v>
+        <v>2746.162315732312</v>
       </c>
       <c r="Y44" t="n">
-        <v>2065.221161406442</v>
+        <v>2356.022983756501</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7733,40 +7733,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
         <v>1317.519490266131</v>
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>567.6136494308324</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C46" t="n">
-        <v>398.6774665029255</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D46" t="n">
-        <v>248.5608270905898</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E46" t="n">
-        <v>100.6477335081967</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
         <v>1617.076751502319</v>
@@ -7830,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.60866391532</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484846</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U46" t="n">
-        <v>1224.739181610489</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V46" t="n">
-        <v>970.0546934046023</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="W46" t="n">
-        <v>970.0546934046023</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X46" t="n">
-        <v>970.0546934046023</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y46" t="n">
-        <v>749.2621142610722</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5911984019044</v>
+        <v>56.27460493020698</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>211.0329012241554</v>
+        <v>54.95314511566482</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154988</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780643</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>114.3555089013345</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22555,19 +22555,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>367.3713828980424</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>23.63013350138339</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,16 +22597,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22628,7 +22628,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -22640,7 +22640,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>15.46194722570533</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -22694,7 +22694,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22707,7 +22707,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>63.78657306553166</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22716,16 +22716,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>66.00450837146523</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22764,7 +22764,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22773,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>344.0398161336313</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22834,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>149.2727446058648</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22941,10 +22941,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22956,7 +22956,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>86.89006039333817</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -22995,7 +22995,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>41.95260624006218</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23007,7 +23007,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>276.1430340502184</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>231.7233303360558</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23178,25 +23178,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>42.08231538110844</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -23229,25 +23229,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>29.55623763649766</v>
       </c>
     </row>
     <row r="11">
@@ -23260,16 +23260,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>140.6604872923368</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>289.8157596099696</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>159.6457400831803</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>102.1141284635736</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>70.32167609651668</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>342.4063110663569</v>
       </c>
     </row>
     <row r="15">
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>13.0896356834169</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>40.18478876576654</v>
       </c>
     </row>
     <row r="17">
@@ -23734,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>154.1943732987681</v>
       </c>
       <c r="D17" t="n">
-        <v>30.71219984759387</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,13 +23898,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>54.30133166621758</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23940,22 +23940,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>132.2315473537755</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23971,16 +23971,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>25.24428266650699</v>
+        <v>149.1044152748394</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>32.92359802148786</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24180,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>140.0567569711501</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>154.1943732987689</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>362.0903062371264</v>
       </c>
     </row>
     <row r="24">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>16.142136056966</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>110.2253518264303</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -24499,7 +24499,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>24.96523205584606</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>100.8920399382145</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.335964134056951</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>157.467092211966</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>191.738257132224</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24736,19 +24736,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>144.989919659698</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>96.4191799035212</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24888,25 +24888,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>65.39176386095775</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>30.83395077441804</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>312.8156244352832</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.142136056966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>128.1651665445291</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>186.2231361403025</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>51.26257727136507</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>77.78783182310575</v>
       </c>
       <c r="H37" t="n">
-        <v>101.2133038412779</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25450,13 +25450,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>294.3692147095447</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>277.2566436803264</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7.758150132350892</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>208.3807601228277</v>
       </c>
     </row>
     <row r="41">
@@ -25630,16 +25630,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>173.2203951552924</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>345.5834682595418</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>130.8301120625273</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>251.5357675728938</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>35.80215787152366</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,13 +25924,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>19.36832238251935</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26034,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>111.6267871176781</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>150.6988949114993</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>779378.7168172044</v>
+        <v>711887.1426185939</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>779378.7168172044</v>
+        <v>779378.7168172043</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>779378.7168172045</v>
+        <v>779378.7168172044</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>859812.0750074496</v>
+        <v>859812.0750074498</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>859812.0750074495</v>
+        <v>859812.0750074497</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>859812.07500745</v>
+        <v>859812.0750074496</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>859812.0750074497</v>
+        <v>859812.0750074495</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>859812.0750074498</v>
+        <v>859812.0750074496</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>859812.0750074496</v>
+        <v>859812.0750074497</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>859812.0750074498</v>
+        <v>859812.0750074497</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>305971.6304943087</v>
+        <v>279547.2423401893</v>
       </c>
       <c r="C2" t="n">
-        <v>305971.6304943087</v>
+        <v>305971.6304943086</v>
       </c>
       <c r="D2" t="n">
         <v>305971.6304943087</v>
       </c>
       <c r="E2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="F2" t="n">
-        <v>340997.0989709208</v>
+        <v>340997.0989709204</v>
       </c>
       <c r="G2" t="n">
+        <v>340997.0989709205</v>
+      </c>
+      <c r="H2" t="n">
+        <v>340997.0989709205</v>
+      </c>
+      <c r="I2" t="n">
         <v>340997.0989709206</v>
       </c>
-      <c r="H2" t="n">
-        <v>340997.0989709204</v>
-      </c>
-      <c r="I2" t="n">
-        <v>340997.0989709204</v>
-      </c>
       <c r="J2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="K2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="L2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="M2" t="n">
+        <v>340997.0989709204</v>
+      </c>
+      <c r="N2" t="n">
         <v>340997.0989709206</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>340997.0989709207</v>
       </c>
-      <c r="O2" t="n">
-        <v>340997.0989709206</v>
-      </c>
       <c r="P2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709205</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1004321.885230093</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>104983.4505300438</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099827</v>
+        <v>141841.1257376602</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>25342.99488522369</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341497</v>
+        <v>47552.26579341494</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.588249117252417e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14971.45584523218</v>
+        <v>13464.32877611455</v>
       </c>
       <c r="C4" t="n">
         <v>14971.45584523217</v>
@@ -26426,10 +26426,10 @@
         <v>14971.45584523218</v>
       </c>
       <c r="E4" t="n">
-        <v>7940.571207054563</v>
+        <v>7940.571207054552</v>
       </c>
       <c r="F4" t="n">
-        <v>7940.571207054563</v>
+        <v>7940.571207054552</v>
       </c>
       <c r="G4" t="n">
         <v>7940.571207054552</v>
@@ -26438,7 +26438,7 @@
         <v>7940.571207054552</v>
       </c>
       <c r="I4" t="n">
-        <v>7940.571207054552</v>
+        <v>7940.571207054528</v>
       </c>
       <c r="J4" t="n">
         <v>7940.571207054552</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26481,7 +26481,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
@@ -26493,25 +26493,25 @@
         <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="K5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="K5" t="n">
-        <v>74306.34056139331</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-921916.8440885798</v>
+        <v>-824092.9217348506</v>
       </c>
       <c r="C6" t="n">
-        <v>192834.9394873402</v>
+        <v>92556.20540699872</v>
       </c>
       <c r="D6" t="n">
-        <v>192834.9394873403</v>
+        <v>197539.6559370426</v>
       </c>
       <c r="E6" t="n">
-        <v>73201.01808722124</v>
+        <v>76329.58845547604</v>
       </c>
       <c r="F6" t="n">
-        <v>255273.9979044119</v>
+        <v>258402.5682726664</v>
       </c>
       <c r="G6" t="n">
-        <v>255273.9979044115</v>
+        <v>258402.5682726666</v>
       </c>
       <c r="H6" t="n">
-        <v>255273.9979044115</v>
+        <v>258402.5682726665</v>
       </c>
       <c r="I6" t="n">
-        <v>255273.9979044115</v>
+        <v>258402.5682726667</v>
       </c>
       <c r="J6" t="n">
-        <v>87668.82009442909</v>
+        <v>116561.4425350065</v>
       </c>
       <c r="K6" t="n">
-        <v>255273.9979044118</v>
+        <v>233059.573387443</v>
       </c>
       <c r="L6" t="n">
-        <v>255273.9979044118</v>
+        <v>258402.5682726665</v>
       </c>
       <c r="M6" t="n">
-        <v>207721.7321109968</v>
+        <v>210850.3024792515</v>
       </c>
       <c r="N6" t="n">
-        <v>255273.9979044118</v>
+        <v>258402.5682726667</v>
       </c>
       <c r="O6" t="n">
-        <v>255273.9979044117</v>
+        <v>258402.5682726667</v>
       </c>
       <c r="P6" t="n">
-        <v>255273.9979044116</v>
+        <v>258402.5682726666</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>542.1149567261631</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
@@ -26798,13 +26798,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022925</v>
@@ -26813,25 +26813,25 @@
         <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>80.35422757985521</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>542.1149567261631</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>98.46987537387565</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000393</v>
+        <v>542.1149567261631</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>98.46987537387588</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>542.1149567261631</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>98.46987537387565</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33280,7 +33280,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33517,10 +33517,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>172.7419126813483</v>
       </c>
       <c r="K3" t="n">
-        <v>373.1786946453892</v>
+        <v>214.9526521472057</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>304.4954681847781</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>13.85280893410651</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>15.48193198348409</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>156.5898900231598</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>256.4684548971897</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>280.9040898900911</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>279.7143300212425</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>242.1833805735793</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>183.4714556748827</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>42.74826709349593</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>508.7132618620056</v>
+        <v>352.6335057535151</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
@@ -35032,10 +35032,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215491</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>230.836231232189</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923311</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36928,7 +36928,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -37165,10 +37165,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
